--- a/python/tests/pytest_min.xlsx
+++ b/python/tests/pytest_min.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="3"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="262">
   <si>
     <t>description</t>
   </si>
@@ -1203,6 +1203,9 @@
   </si>
   <si>
     <t>CCCCC</t>
+  </si>
+  <si>
+    <t>FLD0018</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1324,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1365,6 +1368,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1526,7 +1533,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="177">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1612,6 +1619,8 @@
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="42" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1698,6 +1707,8 @@
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
@@ -5011,8 +5022,8 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5188,8 +5199,8 @@
   </sheetPr>
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5261,6 +5272,12 @@
       </c>
       <c r="B2" s="5" t="s">
         <v>102</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:14">

--- a/python/tests/pytest_min.xlsx
+++ b/python/tests/pytest_min.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="4"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="261">
   <si>
     <t>description</t>
   </si>
@@ -1194,9 +1194,6 @@
   </si>
   <si>
     <t>AAAAAAAA</t>
-  </si>
-  <si>
-    <t>test_experiment_type</t>
   </si>
   <si>
     <t>AAAAA</t>
@@ -5022,8 +5019,8 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5100,7 +5097,7 @@
         <v>256</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5">
         <v>11111</v>
@@ -5118,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
@@ -5127,7 +5124,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L2" s="5">
         <v>101</v>
@@ -5199,7 +5196,7 @@
   </sheetPr>
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
@@ -5277,7 +5274,7 @@
         <v>256</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:14">

--- a/python/tests/pytest_min.xlsx
+++ b/python/tests/pytest_min.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="3"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="261">
   <si>
     <t>description</t>
   </si>
@@ -1709,7 +1709,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="113">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2084,23 +2084,6 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3614,9 +3597,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="113"/>
-    <tableColumn id="2" name="Column names" dataDxfId="112"/>
-    <tableColumn id="3" name="Description" dataDxfId="111"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="112"/>
+    <tableColumn id="2" name="Column names" dataDxfId="111"/>
+    <tableColumn id="3" name="Description" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3625,98 +3608,97 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="76" dataDxfId="75"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="74" dataDxfId="73"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="72" dataDxfId="71"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="75" dataDxfId="74"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="73" dataDxfId="72"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="71" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="68"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="67"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="66"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="65"/>
-    <tableColumn id="5" name="target_start" dataDxfId="64"/>
-    <tableColumn id="6" name="target_end" dataDxfId="63"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="62"/>
+    <tableColumn id="1" name="target_name" dataDxfId="67"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="66"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="65"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="64"/>
+    <tableColumn id="5" name="target_start" dataDxfId="63"/>
+    <tableColumn id="6" name="target_end" dataDxfId="62"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="60">
   <tableColumns count="1">
-    <tableColumn id="1" name="target_description" dataDxfId="60"/>
+    <tableColumn id="1" name="target_description" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="57"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="56"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="55"/>
+    <tableColumn id="1" name="target_name" dataDxfId="56"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="55"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="52"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="51"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="50"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="49"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="51"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="50"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="49"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <tableColumns count="13">
-    <tableColumn id="1" name="guide_name" dataDxfId="46"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="45"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="44"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="43"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="42"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="41"/>
-    <tableColumn id="7" name="chrom" dataDxfId="40"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="39"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="38"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="37"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="36"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="35"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="34"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="45"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="44"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="43"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="42"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="41"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="40"/>
+    <tableColumn id="7" name="chrom" dataDxfId="39"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="38"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="37"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="36"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="35"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="34"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="31"/>
-    <tableColumn id="2" name="description" dataDxfId="30"/>
+    <tableColumn id="1" name="score" dataDxfId="30"/>
+    <tableColumn id="2" name="description" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="27"/>
-    <tableColumn id="2" name="well_position" dataDxfId="26"/>
-    <tableColumn id="6" name="guide_name" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <tableColumns count="3">
+    <tableColumn id="1" name="layout_id" dataDxfId="26"/>
+    <tableColumn id="2" name="well_position" dataDxfId="25"/>
     <tableColumn id="13" name="sequencing_barcode" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3724,7 +3706,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <tableColumns count="10">
     <tableColumn id="1" name="sequencing_sample_name" dataDxfId="21"/>
     <tableColumn id="2" name="sequencing_dna_source" dataDxfId="20"/>
@@ -3756,9 +3738,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="110"/>
-    <tableColumn id="2" name="Column names" dataDxfId="109"/>
-    <tableColumn id="3" name="Description" dataDxfId="108"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="109"/>
+    <tableColumn id="2" name="Column names" dataDxfId="108"/>
+    <tableColumn id="3" name="Description" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3779,9 +3761,9 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A69:C74" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="107"/>
-    <tableColumn id="2" name="Column names" dataDxfId="106"/>
-    <tableColumn id="3" name="Description" dataDxfId="105"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="106"/>
+    <tableColumn id="2" name="Column names" dataDxfId="105"/>
+    <tableColumn id="3" name="Description" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3790,9 +3772,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C37" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="104"/>
-    <tableColumn id="2" name="Column names" dataDxfId="103"/>
-    <tableColumn id="3" name="Description" dataDxfId="102"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="103"/>
+    <tableColumn id="2" name="Column names" dataDxfId="102"/>
+    <tableColumn id="3" name="Description" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3801,9 +3783,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A40:C45" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="101"/>
-    <tableColumn id="2" name="Column names" dataDxfId="100"/>
-    <tableColumn id="3" name="Description" dataDxfId="99"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="100"/>
+    <tableColumn id="2" name="Column names" dataDxfId="99"/>
+    <tableColumn id="3" name="Description" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3812,9 +3794,9 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A63:C68" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="98"/>
-    <tableColumn id="2" name="Column names" dataDxfId="97"/>
-    <tableColumn id="3" name="Description" dataDxfId="96"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="97"/>
+    <tableColumn id="2" name="Column names" dataDxfId="96"/>
+    <tableColumn id="3" name="Description" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3823,20 +3805,20 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A46:C62" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="95" dataDxfId="94"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="93" dataDxfId="92"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="91" dataDxfId="90"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="94" dataDxfId="93"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="92" dataDxfId="91"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="90" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="89" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="88" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="88" dataDxfId="87" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="86" dataDxfId="85" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="84" dataDxfId="83" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="87" dataDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="85" dataDxfId="84" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="83" dataDxfId="82" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3845,9 +3827,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="82" dataDxfId="81"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="80" dataDxfId="79"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="78" dataDxfId="77"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="81" dataDxfId="80"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="79" dataDxfId="78"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="77" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5019,7 +5001,7 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5194,32 +5176,31 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="5"/>
+    <col min="3" max="3" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1">
+    <row r="1" spans="1:13" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>246</v>
       </c>
@@ -5227,43 +5208,40 @@
         <v>20</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
         <v>198</v>
       </c>
@@ -5271,13 +5249,10 @@
         <v>102</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>198</v>
       </c>
@@ -5285,7 +5260,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>198</v>
       </c>
@@ -5293,7 +5268,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>198</v>
       </c>
@@ -5301,7 +5276,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
         <v>198</v>
       </c>
@@ -5309,7 +5284,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
         <v>198</v>
       </c>
@@ -5317,7 +5292,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
         <v>198</v>
       </c>
@@ -5325,7 +5300,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
         <v>198</v>
       </c>
@@ -5333,7 +5308,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:13">
       <c r="A10" s="5" t="s">
         <v>198</v>
       </c>
@@ -5341,7 +5316,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
         <v>198</v>
       </c>
@@ -5349,7 +5324,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:13">
       <c r="A12" s="5" t="s">
         <v>198</v>
       </c>
@@ -5357,7 +5332,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
         <v>198</v>
       </c>
@@ -5365,7 +5340,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
         <v>198</v>
       </c>
@@ -5373,7 +5348,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
         <v>198</v>
       </c>
@@ -5381,7 +5356,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
         <v>198</v>
       </c>
@@ -6055,13 +6030,13 @@
           <x14:formula1>
             <xm:f>Menus!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1048576</xm:sqref>
+          <xm:sqref>J2:J1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$F$2:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J1048576</xm:sqref>
+          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/python/tests/pytest_min.xlsx
+++ b/python/tests/pytest_min.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="4"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="10" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="Layout" sheetId="6" r:id="rId5"/>
     <sheet name="Plate" sheetId="7" r:id="rId6"/>
     <sheet name="GuideMismatches" sheetId="4" r:id="rId7"/>
-    <sheet name="Menus" sheetId="9" r:id="rId8"/>
+    <sheet name="DesireEditedSequences" sheetId="11" r:id="rId8"/>
+    <sheet name="Menus" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="263">
   <si>
     <t>description</t>
   </si>
@@ -1204,12 +1205,18 @@
   <si>
     <t>FLD0018</t>
   </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>sequence_name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1294,16 +1301,33 @@
       <name val="Cambria"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1320,6 +1344,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9BBB59"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9BBB59"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9BBB59"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF9BBB59"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9BBB59"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9BBB59"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9BBB59"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9BBB59"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1500,7 +1554,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1529,6 +1583,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="177">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5178,7 +5235,7 @@
   </sheetPr>
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -6221,6 +6278,74 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="136.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" thickBot="1">
+      <c r="A1" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/python/tests/pytest_min.xlsx
+++ b/python/tests/pytest_min.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="7"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="265">
   <si>
     <t>description</t>
   </si>
@@ -1210,6 +1210,12 @@
   </si>
   <si>
     <t>sequence_name</t>
+  </si>
+  <si>
+    <t>amplicon_name</t>
+  </si>
+  <si>
+    <t>test_amplicon</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1381,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="177">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1419,6 +1425,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1574,6 +1584,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1583,11 +1596,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="177">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1675,6 +1685,8 @@
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="42" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1763,10 +1775,29 @@
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="113">
+  <dxfs count="114">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3654,9 +3685,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="112"/>
-    <tableColumn id="2" name="Column names" dataDxfId="111"/>
-    <tableColumn id="3" name="Description" dataDxfId="110"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="113"/>
+    <tableColumn id="2" name="Column names" dataDxfId="112"/>
+    <tableColumn id="3" name="Description" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3665,128 +3696,129 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="75" dataDxfId="74"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="73" dataDxfId="72"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="71" dataDxfId="70"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="76" dataDxfId="75"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="74" dataDxfId="73"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="72" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="67"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="66"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="65"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="64"/>
-    <tableColumn id="5" name="target_start" dataDxfId="63"/>
-    <tableColumn id="6" name="target_end" dataDxfId="62"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="61"/>
+    <tableColumn id="1" name="target_name" dataDxfId="68"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="67"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="66"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="65"/>
+    <tableColumn id="5" name="target_start" dataDxfId="64"/>
+    <tableColumn id="6" name="target_end" dataDxfId="63"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="61">
   <tableColumns count="1">
-    <tableColumn id="1" name="target_description" dataDxfId="59"/>
+    <tableColumn id="1" name="target_description" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="56"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="55"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="54"/>
+    <tableColumn id="1" name="target_name" dataDxfId="57"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="56"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="51"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="50"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="49"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="48"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="52"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="51"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="50"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
-  <tableColumns count="13">
-    <tableColumn id="1" name="guide_name" dataDxfId="45"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="44"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="43"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="42"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="41"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="40"/>
-    <tableColumn id="7" name="chrom" dataDxfId="39"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="38"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="37"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="36"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="35"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="34"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:N9" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+  <tableColumns count="14">
+    <tableColumn id="1" name="amplicon_name" dataDxfId="46"/>
+    <tableColumn id="14" name="guide_name" dataDxfId="0"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="45"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="44"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="43"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="42"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="41"/>
+    <tableColumn id="7" name="chrom" dataDxfId="40"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="39"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="38"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="37"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="36"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="35"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="O1:P9" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="30"/>
-    <tableColumn id="2" name="description" dataDxfId="29"/>
+    <tableColumn id="1" name="score" dataDxfId="31"/>
+    <tableColumn id="2" name="description" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <tableColumns count="3">
-    <tableColumn id="1" name="layout_id" dataDxfId="26"/>
-    <tableColumn id="2" name="well_position" dataDxfId="25"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="24"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="27"/>
+    <tableColumn id="2" name="well_position" dataDxfId="26"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="21"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="20"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="19"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="18"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="17"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="16"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="15"/>
-    <tableColumn id="8" name="content_type" dataDxfId="14"/>
-    <tableColumn id="9" name="is_control" dataDxfId="13"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="12"/>
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="22"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="21"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="20"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="19"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="18"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="17"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="16"/>
+    <tableColumn id="8" name="content_type" dataDxfId="15"/>
+    <tableColumn id="9" name="is_control" dataDxfId="14"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="9"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="8"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="7"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="6"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="10"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="9"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="8"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3795,21 +3827,21 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="109"/>
-    <tableColumn id="2" name="Column names" dataDxfId="108"/>
-    <tableColumn id="3" name="Description" dataDxfId="107"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="110"/>
+    <tableColumn id="2" name="Column names" dataDxfId="109"/>
+    <tableColumn id="3" name="Description" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="3"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="2"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="1"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="0"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="4"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="3"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="2"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3818,9 +3850,9 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A69:C74" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="106"/>
-    <tableColumn id="2" name="Column names" dataDxfId="105"/>
-    <tableColumn id="3" name="Description" dataDxfId="104"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="107"/>
+    <tableColumn id="2" name="Column names" dataDxfId="106"/>
+    <tableColumn id="3" name="Description" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3829,9 +3861,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C37" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="103"/>
-    <tableColumn id="2" name="Column names" dataDxfId="102"/>
-    <tableColumn id="3" name="Description" dataDxfId="101"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="104"/>
+    <tableColumn id="2" name="Column names" dataDxfId="103"/>
+    <tableColumn id="3" name="Description" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3840,9 +3872,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A40:C45" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="100"/>
-    <tableColumn id="2" name="Column names" dataDxfId="99"/>
-    <tableColumn id="3" name="Description" dataDxfId="98"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="101"/>
+    <tableColumn id="2" name="Column names" dataDxfId="100"/>
+    <tableColumn id="3" name="Description" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3851,9 +3883,9 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A63:C68" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="97"/>
-    <tableColumn id="2" name="Column names" dataDxfId="96"/>
-    <tableColumn id="3" name="Description" dataDxfId="95"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="98"/>
+    <tableColumn id="2" name="Column names" dataDxfId="97"/>
+    <tableColumn id="3" name="Description" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3862,20 +3894,20 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A46:C62" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="94" dataDxfId="93"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="92" dataDxfId="91"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="90" dataDxfId="89"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="95" dataDxfId="94"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="93" dataDxfId="92"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="91" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="88" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="89" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="87" dataDxfId="86" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="85" dataDxfId="84" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="83" dataDxfId="82" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="88" dataDxfId="87" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="86" dataDxfId="85" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="84" dataDxfId="83" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3884,9 +3916,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="81" dataDxfId="80"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="79" dataDxfId="78"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="77" dataDxfId="76"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="82" dataDxfId="81"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="80" dataDxfId="79"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="78" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4229,25 +4261,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="19">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
@@ -5056,16 +5088,16 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
@@ -5084,95 +5116,101 @@
     <col min="20" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1">
+    <row r="1" spans="1:16" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>11111</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="5">
         <v>1</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>101</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -5186,6 +5224,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -5205,19 +5244,19 @@
           <x14:formula1>
             <xm:f>Menus!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
+          <xm:sqref>F10:F1048576 G2:G9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D10:D1048576 E2:E9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
+          <xm:sqref>E10:E1048576 F2:F9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6281,57 +6320,69 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="136.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="136.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" thickBot="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" ht="16" thickBot="1">
+      <c r="A1" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-    </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-    </row>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-    </row>
-    <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-    </row>
-    <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/python/tests/pytest_min.xlsx
+++ b/python/tests/pytest_min.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="3"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736"/>
   </bookViews>
   <sheets>
-    <sheet name="Documentation" sheetId="10" r:id="rId1"/>
+    <sheet name="Help" sheetId="10" r:id="rId1"/>
     <sheet name="Target" sheetId="2" r:id="rId2"/>
     <sheet name="Guide" sheetId="3" r:id="rId3"/>
     <sheet name="Amplicon" sheetId="5" r:id="rId4"/>
     <sheet name="Layout" sheetId="6" r:id="rId5"/>
     <sheet name="Plate" sheetId="7" r:id="rId6"/>
     <sheet name="GuideMismatches" sheetId="4" r:id="rId7"/>
-    <sheet name="DesireEditedSequences" sheetId="11" r:id="rId8"/>
+    <sheet name="TargetedSearch" sheetId="11" r:id="rId8"/>
     <sheet name="Menus" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -1783,6 +1783,88 @@
   <dxfs count="114">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1800,59 +1882,62 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1967,6 +2052,108 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -2052,6 +2239,23 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2103,228 +2307,24 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3755,70 +3755,70 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:N9" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <tableColumns count="14">
     <tableColumn id="1" name="amplicon_name" dataDxfId="46"/>
-    <tableColumn id="14" name="guide_name" dataDxfId="0"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="45"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="44"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="43"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="42"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="41"/>
-    <tableColumn id="7" name="chrom" dataDxfId="40"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="39"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="38"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="37"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="36"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="35"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="34"/>
+    <tableColumn id="14" name="guide_name" dataDxfId="45"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="44"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="43"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="42"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="41"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="40"/>
+    <tableColumn id="7" name="chrom" dataDxfId="39"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="38"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="37"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="36"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="35"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="34"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="O1:P9" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="O1:P9" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="31"/>
-    <tableColumn id="2" name="description" dataDxfId="30"/>
+    <tableColumn id="1" name="score" dataDxfId="30"/>
+    <tableColumn id="2" name="description" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="3">
-    <tableColumn id="1" name="layout_id" dataDxfId="27"/>
-    <tableColumn id="2" name="well_position" dataDxfId="26"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="25"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="26"/>
+    <tableColumn id="2" name="well_position" dataDxfId="25"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="22"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="21"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="20"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="19"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="18"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="17"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="16"/>
-    <tableColumn id="8" name="content_type" dataDxfId="15"/>
-    <tableColumn id="9" name="is_control" dataDxfId="14"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="13"/>
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="21"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="20"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="19"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="18"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="17"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="16"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="15"/>
+    <tableColumn id="8" name="content_type" dataDxfId="14"/>
+    <tableColumn id="9" name="is_control" dataDxfId="13"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="10"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="9"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="8"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="7"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="9"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="8"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="7"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3836,12 +3836,12 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="4"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="3"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="2"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="1"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="3"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="2"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="1"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4248,7 +4248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
@@ -5090,7 +5090,7 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5275,7 +5275,7 @@
   <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/python/tests/pytest_min.xlsx
+++ b/python/tests/pytest_min.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="266">
   <si>
     <t>description</t>
   </si>
@@ -1216,6 +1216,9 @@
   </si>
   <si>
     <t>test_amplicon</t>
+  </si>
+  <si>
+    <t>refseq_orientation_match</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1783,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="115">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3685,9 +3705,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="113"/>
-    <tableColumn id="2" name="Column names" dataDxfId="112"/>
-    <tableColumn id="3" name="Description" dataDxfId="111"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="114"/>
+    <tableColumn id="2" name="Column names" dataDxfId="113"/>
+    <tableColumn id="3" name="Description" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3696,129 +3716,130 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="76" dataDxfId="75"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="74" dataDxfId="73"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="72" dataDxfId="71"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="77" dataDxfId="76"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="75" dataDxfId="74"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="73" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="68"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="67"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="66"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="65"/>
-    <tableColumn id="5" name="target_start" dataDxfId="64"/>
-    <tableColumn id="6" name="target_end" dataDxfId="63"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="62"/>
+    <tableColumn id="1" name="target_name" dataDxfId="69"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="68"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="67"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="66"/>
+    <tableColumn id="5" name="target_start" dataDxfId="65"/>
+    <tableColumn id="6" name="target_end" dataDxfId="64"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="62">
   <tableColumns count="1">
-    <tableColumn id="1" name="target_description" dataDxfId="60"/>
+    <tableColumn id="1" name="target_description" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="57"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="56"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="55"/>
+    <tableColumn id="1" name="target_name" dataDxfId="58"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="57"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="52"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="51"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="50"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="49"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="53"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="52"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="51"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:N9" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:N9" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <tableColumns count="14">
-    <tableColumn id="1" name="amplicon_name" dataDxfId="46"/>
-    <tableColumn id="14" name="guide_name" dataDxfId="45"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="44"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="43"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="42"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="41"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="40"/>
-    <tableColumn id="7" name="chrom" dataDxfId="39"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="38"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="37"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="36"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="35"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="34"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="33"/>
+    <tableColumn id="1" name="amplicon_name" dataDxfId="47"/>
+    <tableColumn id="14" name="guide_name" dataDxfId="46"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="45"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="44"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="43"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="42"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="41"/>
+    <tableColumn id="7" name="chrom" dataDxfId="40"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="39"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="38"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="37"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="36"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="35"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="O1:P9" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="30"/>
-    <tableColumn id="2" name="description" dataDxfId="29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="O1:Q9" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <tableColumns count="3">
+    <tableColumn id="3" name="refseq_orientation_match" dataDxfId="0"/>
+    <tableColumn id="1" name="score" dataDxfId="31"/>
+    <tableColumn id="2" name="description" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <tableColumns count="3">
-    <tableColumn id="1" name="layout_id" dataDxfId="26"/>
-    <tableColumn id="2" name="well_position" dataDxfId="25"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="24"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="27"/>
+    <tableColumn id="2" name="well_position" dataDxfId="26"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="21"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="20"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="19"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="18"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="17"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="16"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="15"/>
-    <tableColumn id="8" name="content_type" dataDxfId="14"/>
-    <tableColumn id="9" name="is_control" dataDxfId="13"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="12"/>
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="22"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="21"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="20"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="19"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="18"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="17"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="16"/>
+    <tableColumn id="8" name="content_type" dataDxfId="15"/>
+    <tableColumn id="9" name="is_control" dataDxfId="14"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="9"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="8"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="7"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="6"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="10"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="9"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="8"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3827,21 +3848,21 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="110"/>
-    <tableColumn id="2" name="Column names" dataDxfId="109"/>
-    <tableColumn id="3" name="Description" dataDxfId="108"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="111"/>
+    <tableColumn id="2" name="Column names" dataDxfId="110"/>
+    <tableColumn id="3" name="Description" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="3"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="2"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="1"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="0"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="4"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="3"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="2"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3850,9 +3871,9 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A69:C74" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="107"/>
-    <tableColumn id="2" name="Column names" dataDxfId="106"/>
-    <tableColumn id="3" name="Description" dataDxfId="105"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="108"/>
+    <tableColumn id="2" name="Column names" dataDxfId="107"/>
+    <tableColumn id="3" name="Description" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3861,9 +3882,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C37" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="104"/>
-    <tableColumn id="2" name="Column names" dataDxfId="103"/>
-    <tableColumn id="3" name="Description" dataDxfId="102"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="105"/>
+    <tableColumn id="2" name="Column names" dataDxfId="104"/>
+    <tableColumn id="3" name="Description" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3872,9 +3893,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A40:C45" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="101"/>
-    <tableColumn id="2" name="Column names" dataDxfId="100"/>
-    <tableColumn id="3" name="Description" dataDxfId="99"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="102"/>
+    <tableColumn id="2" name="Column names" dataDxfId="101"/>
+    <tableColumn id="3" name="Description" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3883,9 +3904,9 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A63:C68" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="98"/>
-    <tableColumn id="2" name="Column names" dataDxfId="97"/>
-    <tableColumn id="3" name="Description" dataDxfId="96"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="99"/>
+    <tableColumn id="2" name="Column names" dataDxfId="98"/>
+    <tableColumn id="3" name="Description" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3894,20 +3915,20 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A46:C62" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="95" dataDxfId="94"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="93" dataDxfId="92"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="91" dataDxfId="90"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="96" dataDxfId="95"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="94" dataDxfId="93"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="92" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="89" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="90" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="88" dataDxfId="87" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="86" dataDxfId="85" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="84" dataDxfId="83" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="89" dataDxfId="88" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="87" dataDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="85" dataDxfId="84" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3916,9 +3937,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="82" dataDxfId="81"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="80" dataDxfId="79"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="78" dataDxfId="77"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="83" dataDxfId="82"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="81" dataDxfId="80"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="79" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4248,7 +4269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
@@ -4895,7 +4916,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5088,10 +5109,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5116,7 +5137,7 @@
     <col min="20" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1">
+    <row r="1" spans="1:17" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>263</v>
       </c>
@@ -5160,13 +5181,16 @@
         <v>19</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="5" t="s">
         <v>264</v>
       </c>
@@ -5210,7 +5234,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
